--- a/pneumoviruses/family.xlsx
+++ b/pneumoviruses/family.xlsx
@@ -1366,7 +1366,8 @@
   <cols>
     <col min="1" max="1" width="24.3516" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
-    <col min="3" max="4" width="12.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.3906" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.8047" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.3516" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.1719" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.1719" style="1" customWidth="1"/>
